--- a/Team-Data/2013-14/2-3-2013-14.xlsx
+++ b/Team-Data/2013-14/2-3-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,19 +811,19 @@
         <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -774,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>5</v>
@@ -789,7 +856,7 @@
         <v>25</v>
       </c>
       <c r="AS2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -798,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
@@ -813,13 +880,13 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -935,10 +1002,10 @@
         <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
@@ -965,16 +1032,16 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>13</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU3" t="n">
         <v>27</v>
@@ -983,7 +1050,7 @@
         <v>26</v>
       </c>
       <c r="AW3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX3" t="n">
         <v>18</v>
@@ -995,10 +1062,10 @@
         <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
         <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.457</v>
+        <v>0.444</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
         <v>35.2</v>
       </c>
       <c r="J4" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K4" t="n">
         <v>0.45</v>
@@ -1057,40 +1124,40 @@
         <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="N4" t="n">
         <v>0.37</v>
       </c>
       <c r="O4" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="P4" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.771</v>
+        <v>0.767</v>
       </c>
       <c r="R4" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T4" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
         <v>14.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y4" t="n">
         <v>4</v>
@@ -1099,19 +1166,19 @@
         <v>22.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.7</v>
+        <v>-2.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
@@ -1129,28 +1196,28 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN4" t="n">
         <v>9</v>
       </c>
       <c r="AO4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1162,22 +1229,22 @@
         <v>19</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG5" t="n">
         <v>20</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>14</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
         <v>10</v>
@@ -1329,10 +1396,10 @@
         <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS5" t="n">
         <v>9</v>
@@ -1359,10 +1426,10 @@
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
         <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>0.489</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>48.9</v>
       </c>
       <c r="I6" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="J6" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K6" t="n">
-        <v>0.422</v>
+        <v>0.425</v>
       </c>
       <c r="L6" t="n">
         <v>5.9</v>
@@ -1424,64 +1491,64 @@
         <v>17.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.335</v>
+        <v>0.339</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P6" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.764</v>
+        <v>0.768</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S6" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T6" t="n">
-        <v>44.6</v>
+        <v>44.9</v>
       </c>
       <c r="U6" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V6" t="n">
         <v>15.6</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>92</v>
+        <v>92.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
@@ -1490,10 +1557,10 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1505,13 +1572,13 @@
         <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1529,7 +1596,7 @@
         <v>25</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX6" t="n">
         <v>8</v>
@@ -1544,10 +1611,10 @@
         <v>9</v>
       </c>
       <c r="BB6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -1576,43 +1643,43 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H7" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I7" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J7" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O7" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="Q7" t="n">
         <v>0.741</v>
@@ -1621,16 +1688,16 @@
         <v>12.3</v>
       </c>
       <c r="S7" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>43.7</v>
+        <v>43.9</v>
       </c>
       <c r="U7" t="n">
         <v>19.8</v>
       </c>
       <c r="V7" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W7" t="n">
         <v>7.3</v>
@@ -1642,55 +1709,55 @@
         <v>6.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>-6.2</v>
+        <v>-5.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
       </c>
       <c r="AO7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP7" t="n">
         <v>22</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>22</v>
@@ -1699,16 +1766,16 @@
         <v>5</v>
       </c>
       <c r="AS7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
         <v>19</v>
@@ -1717,16 +1784,16 @@
         <v>27</v>
       </c>
       <c r="AY7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA7" t="n">
         <v>23</v>
       </c>
       <c r="BB7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -1758,67 +1825,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
         <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>0.571</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.474</v>
+        <v>0.472</v>
       </c>
       <c r="L8" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O8" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P8" t="n">
         <v>21.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="R8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T8" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="U8" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
         <v>13.7</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y8" t="n">
         <v>3.4</v>
@@ -1827,25 +1894,25 @@
         <v>20.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.6</v>
+        <v>104.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>28</v>
@@ -1854,19 +1921,19 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>4</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>19</v>
@@ -1887,13 +1954,13 @@
         <v>28</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
         <v>5</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>25</v>
@@ -1902,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>24</v>
@@ -1911,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
         <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.489</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
@@ -1961,37 +2028,37 @@
         <v>84.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="P9" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.728</v>
+        <v>0.729</v>
       </c>
       <c r="R9" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S9" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T9" t="n">
-        <v>45.6</v>
+        <v>45.5</v>
       </c>
       <c r="U9" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V9" t="n">
         <v>15.1</v>
@@ -2009,31 +2076,31 @@
         <v>22.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="AC9" t="n">
         <v>0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>6</v>
@@ -2051,16 +2118,16 @@
         <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS9" t="n">
         <v>5</v>
@@ -2072,7 +2139,7 @@
         <v>11</v>
       </c>
       <c r="AV9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW9" t="n">
         <v>21</v>
@@ -2087,13 +2154,13 @@
         <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -2122,22 +2189,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>0.404</v>
+        <v>0.413</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J10" t="n">
         <v>85.8</v>
@@ -2149,43 +2216,43 @@
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N10" t="n">
         <v>0.306</v>
       </c>
       <c r="O10" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P10" t="n">
         <v>26.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.665</v>
+        <v>0.663</v>
       </c>
       <c r="R10" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="S10" t="n">
         <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U10" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V10" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W10" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X10" t="n">
         <v>5.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z10" t="n">
         <v>20.5</v>
@@ -2194,13 +2261,13 @@
         <v>20.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AC10" t="n">
         <v>-2.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2215,7 +2282,7 @@
         <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2233,7 +2300,7 @@
         <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>4</v>
@@ -2248,25 +2315,25 @@
         <v>24</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
         <v>9</v>
       </c>
       <c r="AY10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>15</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>12</v>
@@ -2275,7 +2342,7 @@
         <v>16</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2412,13 +2479,13 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO11" t="n">
         <v>24</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>23</v>
@@ -2439,7 +2506,7 @@
         <v>29</v>
       </c>
       <c r="AW11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="n">
         <v>7</v>
@@ -2588,7 +2655,7 @@
         <v>5</v>
       </c>
       <c r="AL12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
@@ -2612,10 +2679,10 @@
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
@@ -2636,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="n">
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>0.787</v>
+        <v>0.783</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
@@ -2686,7 +2753,7 @@
         <v>36.7</v>
       </c>
       <c r="J13" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K13" t="n">
         <v>0.454</v>
@@ -2695,37 +2762,37 @@
         <v>6.9</v>
       </c>
       <c r="M13" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O13" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R13" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="T13" t="n">
-        <v>45.6</v>
+        <v>45.4</v>
       </c>
       <c r="U13" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V13" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X13" t="n">
         <v>5.7</v>
@@ -2734,7 +2801,7 @@
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
@@ -2743,10 +2810,10 @@
         <v>98.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2764,7 +2831,7 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK13" t="n">
         <v>12</v>
@@ -2776,13 +2843,13 @@
         <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>6</v>
@@ -2800,7 +2867,7 @@
         <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2812,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="AZ13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -2850,64 +2917,64 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>34</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.68</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J14" t="n">
         <v>81.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L14" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P14" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="Q14" t="n">
         <v>0.728</v>
       </c>
       <c r="R14" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S14" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>4.5</v>
@@ -2916,22 +2983,22 @@
         <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AA14" t="n">
         <v>23.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.1</v>
+        <v>105.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2943,7 +3010,7 @@
         <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
@@ -2976,16 +3043,16 @@
         <v>14</v>
       </c>
       <c r="AT14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX14" t="n">
         <v>19</v>
@@ -3000,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3137,19 +3204,19 @@
         <v>5</v>
       </c>
       <c r="AM15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN15" t="n">
         <v>12</v>
       </c>
       <c r="AO15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP15" t="n">
         <v>17</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AQ15" t="n">
         <v>16</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>24</v>
@@ -3176,7 +3243,7 @@
         <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -3214,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="n">
         <v>26</v>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>0.553</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J16" t="n">
         <v>82.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M16" t="n">
         <v>14.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.35</v>
+        <v>0.355</v>
       </c>
       <c r="O16" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P16" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="Q16" t="n">
         <v>0.747</v>
       </c>
       <c r="R16" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S16" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T16" t="n">
-        <v>42.9</v>
+        <v>43.1</v>
       </c>
       <c r="U16" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V16" t="n">
         <v>13.3</v>
@@ -3277,7 +3344,7 @@
         <v>4.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z16" t="n">
         <v>19.6</v>
@@ -3286,13 +3353,13 @@
         <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3301,7 +3368,7 @@
         <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>15</v>
@@ -3322,10 +3389,10 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP16" t="n">
         <v>27</v>
@@ -3334,16 +3401,16 @@
         <v>21</v>
       </c>
       <c r="AR16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS16" t="n">
         <v>22</v>
       </c>
       <c r="AT16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU16" t="n">
         <v>16</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3364,10 +3431,10 @@
         <v>28</v>
       </c>
       <c r="BB16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="n">
         <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>0.723</v>
+        <v>0.717</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3414,10 +3481,10 @@
         <v>39.1</v>
       </c>
       <c r="J17" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.509</v>
+        <v>0.51</v>
       </c>
       <c r="L17" t="n">
         <v>8</v>
@@ -3426,7 +3493,7 @@
         <v>21.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O17" t="n">
         <v>17.9</v>
@@ -3435,22 +3502,22 @@
         <v>23.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R17" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="S17" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T17" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="U17" t="n">
         <v>23.4</v>
       </c>
       <c r="V17" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W17" t="n">
         <v>9</v>
@@ -3459,7 +3526,7 @@
         <v>4.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Z17" t="n">
         <v>20</v>
@@ -3474,22 +3541,22 @@
         <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,13 +3565,13 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM17" t="n">
         <v>14</v>
       </c>
-      <c r="AM17" t="n">
-        <v>15</v>
-      </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
         <v>13</v>
@@ -3513,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,16 +3592,16 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -3578,46 +3645,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>39</v>
       </c>
       <c r="G18" t="n">
-        <v>0.188</v>
+        <v>0.17</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
       </c>
       <c r="I18" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J18" t="n">
         <v>82.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L18" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M18" t="n">
         <v>20.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.349</v>
+        <v>0.344</v>
       </c>
       <c r="O18" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P18" t="n">
         <v>20</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R18" t="n">
         <v>11.4</v>
@@ -3626,22 +3693,22 @@
         <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U18" t="n">
         <v>20.8</v>
       </c>
       <c r="V18" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W18" t="n">
         <v>7</v>
       </c>
       <c r="X18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
@@ -3650,13 +3717,13 @@
         <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>92.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.6</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3677,16 +3744,16 @@
         <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3710,13 +3777,13 @@
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3725,10 +3792,10 @@
         <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -3838,25 +3905,25 @@
         <v>4.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>9</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3883,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
@@ -3892,10 +3959,10 @@
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3910,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC19" t="n">
         <v>8</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>0.426</v>
+        <v>0.435</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,7 +4027,7 @@
         <v>38.2</v>
       </c>
       <c r="J20" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K20" t="n">
         <v>0.455</v>
@@ -3972,64 +4039,64 @@
         <v>15.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.379</v>
+        <v>0.378</v>
       </c>
       <c r="O20" t="n">
         <v>17.6</v>
       </c>
       <c r="P20" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R20" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
         <v>42.7</v>
       </c>
       <c r="U20" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>22.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
         <v>11</v>
@@ -4056,10 +4123,10 @@
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
         <v>4</v>
@@ -4068,28 +4135,28 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>28</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB20" t="n">
         <v>17</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -4124,76 +4191,76 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>0.396</v>
+        <v>0.404</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J21" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K21" t="n">
         <v>0.443</v>
       </c>
       <c r="L21" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M21" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.37</v>
+        <v>0.367</v>
       </c>
       <c r="O21" t="n">
         <v>14.9</v>
       </c>
       <c r="P21" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
         <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V21" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W21" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X21" t="n">
         <v>4.7</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z21" t="n">
         <v>22.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB21" t="n">
         <v>96.90000000000001</v>
@@ -4202,13 +4269,13 @@
         <v>-2.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
         <v>22</v>
@@ -4226,22 +4293,22 @@
         <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM21" t="n">
         <v>7</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4259,19 +4326,19 @@
         <v>2</v>
       </c>
       <c r="AW21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX21" t="n">
         <v>14</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>15</v>
       </c>
       <c r="AY21" t="n">
         <v>5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="n">
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>0.78</v>
+        <v>0.776</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L22" t="n">
         <v>7.2</v>
@@ -4336,16 +4403,16 @@
         <v>20.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.353</v>
+        <v>0.356</v>
       </c>
       <c r="O22" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P22" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.801</v>
+        <v>0.805</v>
       </c>
       <c r="R22" t="n">
         <v>11.2</v>
@@ -4354,31 +4421,31 @@
         <v>34.6</v>
       </c>
       <c r="T22" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="U22" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V22" t="n">
         <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y22" t="n">
         <v>3.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA22" t="n">
         <v>20.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>105</v>
+        <v>105.4</v>
       </c>
       <c r="AC22" t="n">
         <v>7.6</v>
@@ -4399,16 +4466,16 @@
         <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
         <v>20</v>
@@ -4417,10 +4484,10 @@
         <v>16</v>
       </c>
       <c r="AO22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4435,7 +4502,7 @@
         <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV22" t="n">
         <v>27</v>
@@ -4456,7 +4523,7 @@
         <v>17</v>
       </c>
       <c r="BB22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
@@ -4509,40 +4576,40 @@
         <v>82.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L23" t="n">
         <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O23" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="P23" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="R23" t="n">
         <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T23" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
         <v>20.5</v>
       </c>
       <c r="V23" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W23" t="n">
         <v>7.6</v>
@@ -4557,13 +4624,13 @@
         <v>19.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
@@ -4581,7 +4648,7 @@
         <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
         <v>21</v>
@@ -4590,25 +4657,25 @@
         <v>20</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
         <v>18</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO23" t="n">
         <v>21</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ23" t="n">
         <v>15</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
         <v>8</v>
@@ -4620,7 +4687,7 @@
         <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4635,10 +4702,10 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -4670,91 +4737,91 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="n">
-        <v>0.306</v>
+        <v>0.313</v>
       </c>
       <c r="H24" t="n">
         <v>48.7</v>
       </c>
       <c r="I24" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L24" t="n">
         <v>6.8</v>
       </c>
       <c r="M24" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.316</v>
+        <v>0.314</v>
       </c>
       <c r="O24" t="n">
         <v>16.7</v>
       </c>
       <c r="P24" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q24" t="n">
         <v>0.712</v>
       </c>
       <c r="R24" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S24" t="n">
         <v>32.8</v>
       </c>
       <c r="T24" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U24" t="n">
         <v>22.4</v>
       </c>
       <c r="V24" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB24" t="n">
         <v>101</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG24" t="n">
         <v>28</v>
@@ -4766,16 +4833,16 @@
         <v>7</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN24" t="n">
         <v>29</v>
@@ -4784,16 +4851,16 @@
         <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS24" t="n">
         <v>11</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>12</v>
       </c>
       <c r="AT24" t="n">
         <v>10</v>
@@ -4805,10 +4872,10 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4817,7 +4884,7 @@
         <v>23</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>3.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
@@ -4942,7 +5009,7 @@
         <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>8</v>
@@ -4975,7 +5042,7 @@
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT25" t="n">
         <v>13</v>
@@ -4984,13 +5051,13 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
@@ -4999,7 +5066,7 @@
         <v>22</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
         <v>34</v>
       </c>
       <c r="F26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
-        <v>0.708</v>
+        <v>0.723</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="J26" t="n">
-        <v>88.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="K26" t="n">
         <v>0.453</v>
       </c>
       <c r="L26" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M26" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.382</v>
+        <v>0.384</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P26" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.821</v>
+        <v>0.82</v>
       </c>
       <c r="R26" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T26" t="n">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="U26" t="n">
         <v>24.2</v>
@@ -5091,10 +5158,10 @@
         <v>13.6</v>
       </c>
       <c r="W26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y26" t="n">
         <v>3.6</v>
@@ -5103,25 +5170,25 @@
         <v>18.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>108</v>
+        <v>108.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH26" t="n">
         <v>17</v>
@@ -5139,22 +5206,22 @@
         <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS26" t="n">
         <v>6</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
         <v>32</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.319</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J27" t="n">
-        <v>83.3</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L27" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M27" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="O27" t="n">
         <v>19.7</v>
       </c>
-      <c r="N27" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="O27" t="n">
-        <v>19.8</v>
-      </c>
       <c r="P27" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R27" t="n">
         <v>11.9</v>
       </c>
       <c r="S27" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="U27" t="n">
         <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W27" t="n">
         <v>7.4</v>
@@ -5279,31 +5346,31 @@
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA27" t="n">
         <v>22.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.2</v>
+        <v>-2.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
@@ -5312,43 +5379,43 @@
         <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN27" t="n">
         <v>23</v>
       </c>
-      <c r="AM27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>25</v>
-      </c>
       <c r="AO27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP27" t="n">
         <v>6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AW27" t="n">
         <v>18</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -5398,85 +5465,85 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
         <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.729</v>
+        <v>0.723</v>
       </c>
       <c r="H28" t="n">
         <v>48.1</v>
       </c>
       <c r="I28" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="J28" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.491</v>
+        <v>0.492</v>
       </c>
       <c r="L28" t="n">
         <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.397</v>
+        <v>0.399</v>
       </c>
       <c r="O28" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P28" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R28" t="n">
         <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U28" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="V28" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AC28" t="n">
         <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5509,16 +5576,16 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP28" t="n">
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
@@ -5530,13 +5597,13 @@
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>16</v>
       </c>
       <c r="AX28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
@@ -5548,7 +5615,7 @@
         <v>25</v>
       </c>
       <c r="BB28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" t="n">
         <v>22</v>
       </c>
       <c r="G29" t="n">
-        <v>0.542</v>
+        <v>0.532</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
@@ -5607,34 +5674,34 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O29" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P29" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R29" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S29" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T29" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U29" t="n">
         <v>20.8</v>
       </c>
       <c r="V29" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="W29" t="n">
         <v>6.9</v>
@@ -5646,22 +5713,22 @@
         <v>4.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>13</v>
@@ -5676,13 +5743,13 @@
         <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="n">
         <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5697,10 +5764,10 @@
         <v>10</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AS29" t="n">
         <v>20</v>
@@ -5709,7 +5776,7 @@
         <v>14</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5718,13 +5785,13 @@
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA29" t="n">
         <v>6</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -5762,22 +5829,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
       </c>
       <c r="I30" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J30" t="n">
         <v>81.40000000000001</v>
@@ -5789,37 +5856,37 @@
         <v>6.6</v>
       </c>
       <c r="M30" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="O30" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P30" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R30" t="n">
         <v>11.1</v>
       </c>
       <c r="S30" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T30" t="n">
         <v>41.6</v>
       </c>
       <c r="U30" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X30" t="n">
         <v>4.7</v>
@@ -5828,31 +5895,31 @@
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.40000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.5</v>
+        <v>-6.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5861,7 +5928,7 @@
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5870,16 +5937,16 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP30" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
         <v>18</v>
@@ -5894,25 +5961,25 @@
         <v>26</v>
       </c>
       <c r="AV30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB30" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BC30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
@@ -5944,19 +6011,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" t="n">
         <v>23</v>
       </c>
       <c r="G31" t="n">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I31" t="n">
         <v>37.8</v>
@@ -5977,31 +6044,31 @@
         <v>0.375</v>
       </c>
       <c r="O31" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P31" t="n">
         <v>21.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.732</v>
+        <v>0.729</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="S31" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T31" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U31" t="n">
         <v>23.2</v>
       </c>
       <c r="V31" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="W31" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
@@ -6010,19 +6077,19 @@
         <v>3.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB31" t="n">
         <v>98.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6055,13 +6122,13 @@
         <v>5</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
         <v>19</v>
@@ -6076,19 +6143,19 @@
         <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA31" t="n">
         <v>27</v>
@@ -6097,7 +6164,7 @@
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-3-2013-14</t>
+          <t>2014-02-03</t>
         </is>
       </c>
     </row>
